--- a/tests/subdivision.xlsx
+++ b/tests/subdivision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Population sizes" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,9 @@
     <t>Total (actual)</t>
   </si>
   <si>
-    <t>simple - district 1</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
-    <t>simple - district 2</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -45,6 +39,12 @@
   </si>
   <si>
     <t>District aggregate</t>
+  </si>
+  <si>
+    <t>Subnational demo - district 1</t>
+  </si>
+  <si>
+    <t>Subnational demo - district 2</t>
   </si>
 </sst>
 </file>
@@ -407,8 +407,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <f>B5*E2/E5</f>
+        <v>228062.62046085778</v>
+      </c>
+      <c r="C2" s="2">
+        <f>C5*E2/E5</f>
+        <v>271937.67469591473</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="2">
+        <f>SUM(B2:C2)</f>
+        <v>500000.29515677248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <f>B5*E3/E5</f>
+        <v>547350.28910605866</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C5*E3/E5</f>
+        <v>652650.41927019542</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1200000</v>
+      </c>
+      <c r="F3" s="2">
+        <f>SUM(B3:C3)</f>
+        <v>1200000.708376254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>772683</v>
+      </c>
+      <c r="C5" s="2">
+        <v>921333</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1694015</v>
+      </c>
+      <c r="F5" s="2">
+        <f>SUM(B5:C5)</f>
+        <v>1694016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SUM(B2:B3)</f>
+        <v>775412.90956691641</v>
+      </c>
+      <c r="C6" s="2">
+        <f>SUM(C2:C3)</f>
+        <v>924588.09396611014</v>
+      </c>
+      <c r="E6" s="2">
+        <f>SUM(E2:E3)</f>
+        <v>1700000</v>
+      </c>
+      <c r="F6" s="2">
+        <f>SUM(B6:C6)</f>
+        <v>1700001.0035330267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,131 +554,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <f>B5*E2/E5</f>
-        <v>228062.62046085778</v>
-      </c>
-      <c r="C2" s="2">
-        <f>C5*E2/E5</f>
-        <v>271937.67469591473</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6">
-        <v>500000</v>
-      </c>
-      <c r="F2" s="2">
-        <f>SUM(B2:C2)</f>
-        <v>500000.29515677248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <f>B5*E3/E5</f>
-        <v>547350.28910605866</v>
-      </c>
-      <c r="C3" s="2">
-        <f>C5*E3/E5</f>
-        <v>652650.41927019542</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="F3" s="2">
-        <f>SUM(B3:C3)</f>
-        <v>1200000.708376254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>772683</v>
-      </c>
-      <c r="C5" s="2">
-        <v>921333</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1694015</v>
-      </c>
-      <c r="F5" s="2">
-        <f>SUM(B5:C5)</f>
-        <v>1694016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <f>SUM(B2:B3)</f>
-        <v>775412.90956691641</v>
-      </c>
-      <c r="C6" s="2">
-        <f>SUM(C2:C3)</f>
-        <v>924588.09396611014</v>
-      </c>
-      <c r="E6" s="2">
-        <f>SUM(E2:E3)</f>
-        <v>1700000</v>
-      </c>
-      <c r="F6" s="2">
-        <f>SUM(B6:C6)</f>
-        <v>1700001.0035330267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population sizes'!A2</f>
-        <v>simple - district 1</v>
+        <v>Subnational demo - district 1</v>
       </c>
       <c r="B2" s="5">
         <f>(E2*(1-E5)/(E5*(1-E2)))/(E2*(1-E5)/(E5*(1-E2))-1+1/B5)</f>
@@ -566,7 +567,7 @@
         <v>1.1279693432041757E-3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>1E-3</v>
@@ -579,7 +580,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population sizes'!A3</f>
-        <v>simple - district 2</v>
+        <v>Subnational demo - district 2</v>
       </c>
       <c r="B3" s="5">
         <f>(E3*(1-E5)/(E5*(1-E3)))/(E3*(1-E5)/(E5*(1-E3))-1+1/B5)</f>
@@ -590,7 +591,7 @@
         <v>2.5870388421699284E-2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
         <v>2.3E-2</v>
@@ -602,12 +603,12 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1.4163711882842E-2</v>
@@ -625,7 +626,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <f>SUMPRODUCT('Population sizes'!B2:B3,B2:B3)/'Population sizes'!B6</f>
